--- a/biology/Zoologie/Erigomicronus/Erigomicronus.xlsx
+++ b/biology/Zoologie/Erigomicronus/Erigomicronus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erigomicronus est un genre d'araignées aranéomorphes de la famille des Linyphiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erigomicronus est un genre d'araignées aranéomorphes de la famille des Linyphiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontre en Corée du Sud, au Japon, en Chine et en Russie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontre en Corée du Sud, au Japon, en Chine et en Russie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 22.5, 18/07/2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 22.5, 18/07/2021) :
 Erigomicronus flavus (Seo, 2018)
 Erigomicronus lautus (Saito, 1984)
 Erigomicronus longembolus (Wunderlich &amp; Li, 1995)
@@ -577,9 +593,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Collis[3] a été placée en synonymie par Tanasevitch en 2021[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Collis a été placée en synonymie par Tanasevitch en 2021.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tanasevitch, 2018 : « A new, remarkable erigonine spider genus from eastern Asia (Araneae, Linyphiidae). » Zootaxa, no 4524(2), p. 245-250.</t>
         </is>
